--- a/outputs-HGR-r202/g__CAG-882.xlsx
+++ b/outputs-HGR-r202/g__CAG-882.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>s__CAG-882 sp000435595(reject)</t>
+          <t>s__CAG-882 sp000435595</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>s__CAG-882 sp003486385(reject)</t>
+          <t>s__CAG-882 sp003486385</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>s__CAG-882 sp003486385(reject)</t>
+          <t>s__CAG-882 sp003486385</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>s__CAG-882 sp003486385(reject)</t>
+          <t>s__CAG-882 sp003486385</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>s__CAG-882 sp000435595(reject)</t>
+          <t>s__CAG-882 sp000435595</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__CAG-882.xlsx
+++ b/outputs-HGR-r202/g__CAG-882.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>s__CAG-882 sp000435595</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__CAG-882 sp000435595</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>s__CAG-882 sp003486385</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__CAG-882 sp003486385</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>s__CAG-882 sp003486385</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__CAG-882 sp003486385</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>s__CAG-882 sp003486385</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__CAG-882 sp003486385</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>s__CAG-882 sp900545455</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__CAG-882 sp900545455(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -628,6 +658,11 @@
         <v>0.5158818477991636</v>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>s__CAG-882 sp000435595</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>s__CAG-882 sp000435595</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-882.xlsx
+++ b/outputs-HGR-r202/g__CAG-882.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,38 +636,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84562.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5158818477991636</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.192416112390563</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06841551698948435</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2232865228207891</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5158818477991636</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>s__CAG-882 sp000435595</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__CAG-882 sp000435595</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
